--- a/biology/Zoologie/Conus_insularis/Conus_insularis.xlsx
+++ b/biology/Zoologie/Conus_insularis/Conus_insularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus insularis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus insularis a été décrite pour la première fois en 1791 par le naturaliste et chimiste allemand Johann Friedrich Gmelin dans la publication intitulée « Systema Naturae Linneaeus Ed. 13 »[1],[2].
-Synonymes
-Conus caracanus Hwass, 1792 · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus insularis a été décrite pour la première fois en 1791 par le naturaliste et chimiste allemand Johann Friedrich Gmelin dans la publication intitulée « Systema Naturae Linneaeus Ed. 13 »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_insularis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_insularis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus caracanus Hwass, 1792 · non accepté
 Conus cedonulli insularis Gmelin, 1791 · non accepté
 Conus cedonulli  var. caracanus Hwass, 1792 · non accepté
 Tenorioconus caracanus (Hwass, 1792) · non accepté
